--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>группа</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>group_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tgname</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>task_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>task_course</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
         </is>
       </c>
     </row>

--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,141 +434,222 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>group_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tgname</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>chatid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>task_id</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>task_course</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11111</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11111</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22222</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2222</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22222</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
-      </c>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>33333</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>44444</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>45</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,140 +434,111 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>group_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tgname</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>chatid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>task_id</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>task_course</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Репа</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>Репов</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+          <t>211-722</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ФИО</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>имяТГ</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>курс</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>группа</t>
-        </is>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>625424619</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>пипа</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ыавьажвыь</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,35 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tgname</t>
+          <t>chatid</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>chatid</t>
+          <t>task_id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>task_id</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>task_course</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>task_course</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>max</t>
         </is>
@@ -501,45 +496,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Репа</t>
+          <t>Ilia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Репов</t>
+          <t>Str</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>211-722</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>625424619</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>пипа</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ыавьажвыь</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
+        <v>1111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>561596807</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,30 +496,75 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Репа</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Репов</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>211-722</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625424619</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>пяавппаиаыи</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>gfl</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Ilia</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Str</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Stone</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228-228</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>561596807</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -560,11 +560,25 @@
       <c r="F3" t="n">
         <v>561596807</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>daa</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>fdvvddvsdv</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Itog.xlsx
+++ b/Itog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,92 +492,168 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Репа</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Репов</t>
+          <t>Стр</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>211-722</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>625424619</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>пяавппаиаыи</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>gfl</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
+        <v>561596807</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ilia</t>
+          <t>фрыфвэ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>выфопвопъ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>228-228</t>
+          <t>229</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>561596807</v>
+        <v>625424619</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>daa</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>fdvvddvsdv</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>фрыфвэ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>выфопвопъ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>625424619</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>dwgvsdsdcv</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>фрыфвэ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>выфопвопъ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>625424619</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>dsjhc</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Нужно переделать обложку + картинки к лекция и лабораторным работам, курс - "Основы алгоритмизации и программирования". Этот курс есть у нас, поэтому не буду расписывать, всего 22 картинки, по 11 на каждого, обращаться к @repa007</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
